--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-49</v>
+        <v>-64</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-71</v>
+        <v>-86</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-23</v>
+        <v>-5</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45292</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -1,40 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/e2e_test_output_12week_forecast_test/simulation_output/module3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_2B5983FF5648DEC76E2476F1574B887440B5F4A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{333701D1-C43D-4B2F-B10A-048F84DC05FF}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1155" yWindow="-13905" windowWidth="20520" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NetDemand" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NetDemand" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>requirement_date</t>
+  </si>
+  <si>
+    <t>demand_element</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>simulation_date</t>
+  </si>
+  <si>
+    <t>horizon_days</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>Distribution Demand - Forecast</t>
+  </si>
+  <si>
+    <t>DC_002</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +102,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,190 +427,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>requirement_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>demand_element</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>layer</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>simulation_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>horizon_days</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>45293</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>-64</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2">
+        <v>-49</v>
+      </c>
+      <c r="G2" s="2">
         <v>45292</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
         <v>45293</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-23</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>45292</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
         <v>45293</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>-86</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="F4">
+        <v>-71</v>
+      </c>
+      <c r="G4" s="2">
         <v>45292</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>45293</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5">
+        <v>-23</v>
+      </c>
+      <c r="G5" s="2">
         <v>45292</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -1,93 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/e2e_test_output_12week_forecast_test/simulation_output/module3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2B5983FF5648DEC76E2476F1574B887440B5F4A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{333701D1-C43D-4B2F-B10A-048F84DC05FF}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-13905" windowWidth="20520" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NetDemand" sheetId="1" r:id="rId1"/>
+    <sheet name="NetDemand" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>requirement_date</t>
-  </si>
-  <si>
-    <t>demand_element</t>
-  </si>
-  <si>
-    <t>layer</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>simulation_date</t>
-  </si>
-  <si>
-    <t>horizon_days</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
-  </si>
-  <si>
-    <t>DC_001</t>
-  </si>
-  <si>
-    <t>Distribution Demand - Forecast</t>
-  </si>
-  <si>
-    <t>DC_002</t>
-  </si>
-  <si>
-    <t>PLANT_001</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,155 +424,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>requirement_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>demand_element</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>layer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>horizon_days</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-157</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F4" t="n">
+        <v>-253</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-127</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>-49</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>-23</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45292</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>-71</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45292</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-23</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45292</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-157</v>
+        <v>-165</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-103</v>
+        <v>-108</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45292</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-253</v>
+        <v>-266</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-127</v>
+        <v>-131</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45292</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45292</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-165</v>
+        <v>-167</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-266</v>
+        <v>-268</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-11</v>
+        <v>-91</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45292</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-167</v>
+        <v>-102</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-108</v>
+        <v>-64</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-268</v>
+        <v>-422</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-131</v>
+        <v>-55</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-91</v>
+        <v>-15</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45292</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-102</v>
+        <v>-117</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-422</v>
+        <v>-404</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-55</v>
+        <v>-37</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45292</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-15</v>
+        <v>-37</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>45292</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-117</v>
+        <v>-69</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-64</v>
+        <v>-34</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45292</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-404</v>
+        <v>-103</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -598,45 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-37</v>
+        <v>-17</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-37</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-69</v>
+        <v>-124</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-34</v>
+        <v>-291</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45292</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-103</v>
+        <v>-432</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-17</v>
+        <v>-33</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-124</v>
+        <v>-225</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45292</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>-291</v>
+        <v>-422</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45292</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-432</v>
+        <v>-709</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>45292</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -598,12 +598,76 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-33</v>
+        <v>-98</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-48</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Distribution Demand - Forecast</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-98</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module3/Module3Output_20240101.xlsx
@@ -1,40 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/e2e_test_output_12week_forecast_test/simulation_output/module3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_2B5983FF56F8D809EDBEAD91414B887440B5FA69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664F3A79-ECC5-4CBE-9524-5D1E24FEF55E}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NetDemand" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NetDemand" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>requirement_date</t>
+  </si>
+  <si>
+    <t>demand_element</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>simulation_date</t>
+  </si>
+  <si>
+    <t>horizon_days</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>Distribution Demand - Forecast</t>
+  </si>
+  <si>
+    <t>DC_002</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +102,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,254 +427,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>requirement_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>demand_element</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>layer</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>simulation_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>horizon_days</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>45293</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>-225</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>45292</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
         <v>45293</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>-422</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>45292</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
         <v>45293</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-709</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>45292</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>45293</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>-98</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>45292</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
         <v>45293</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>-48</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>45292</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
         <v>45293</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Distribution Demand - Forecast</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-98</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>45292</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>